--- a/data/chem_profs_1.xlsx
+++ b/data/chem_profs_1.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">دکتر فارسی</t>
   </si>
   <si>
-    <t xml:space="preserve">ریاضیات مهندسی </t>
+    <t xml:space="preserve">ریاضیات مهندسی</t>
   </si>
   <si>
     <t xml:space="preserve">شیمی فیزیک</t>
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -99,6 +99,13 @@
       <name val="B Nazanin"/>
       <family val="0"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,11 +163,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,12 +191,12 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.84"/>
@@ -203,94 +210,94 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
